--- a/src/ExcelsiorClosedXml.Tests/Tests.DisplayAttributes.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.DisplayAttributes.verified.xlsx
@@ -105,7 +105,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -411,11 +411,11 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.139196" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.853482" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.996339" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="18.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.853482" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">

--- a/src/ExcelsiorClosedXml.Tests/Tests.DisplayAttributes.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.DisplayAttributes.verified.xlsx
@@ -39,16 +39,10 @@
     <x:t>Electronic Items</x:t>
   </x:si>
   <x:si>
-    <x:t>True</x:t>
-  </x:si>
-  <x:si>
     <x:t>Book</x:t>
   </x:si>
   <x:si>
     <x:t>Books &amp; Literature</x:t>
-  </x:si>
-  <x:si>
-    <x:t>False</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -448,8 +442,8 @@
       <x:c r="D2" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>7</x:v>
+      <x:c r="E2" s="1" t="b">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -457,16 +451,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="1">
         <x:v>29.99</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="b">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
